--- a/biology/Zoologie/Heinrich_Ernst_Karl_Jordan/Heinrich_Ernst_Karl_Jordan.xlsx
+++ b/biology/Zoologie/Heinrich_Ernst_Karl_Jordan/Heinrich_Ernst_Karl_Jordan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Ernst Karl Jordan est un entomologiste allemand, né le 7 décembre 1861 à Almstedt et mort le 12 janvier 1959 à Tring.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de botanique et de zoologie à l’université de Göttingen, où il devient membre de la Burschenschaft Holzminda (de). En 1893, il commence à travailler au muséum de Tring, où Lord Lionel Walter Rothschild (1868-1937) conservait son immense collection d’histoire naturelle.
 Il se spécialise dans les coléoptères, les lépidoptères et les siphonaptères. Jordan fait paraître plus de 400 publications, le plus souvent avec Lord Rothschild ou son frère Nathaniel Charles Rothschild (1877-1923). Il décrit seul 2 575 nouvelles espèces et, avec les frères Rothschild, 851 autres.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1903 : avec Lionel Walter Rothschild (1868-1937), A revision of the lepidopterous family Sphingidae. Londres et Aylesbury, Hazell, Watson et Viney : 30-32.</t>
         </is>
